--- a/input_test/putida_v2_3_all_fixed_flux_debug.xlsx
+++ b/input_test/putida_v2_3_all_fixed_flux_debug.xlsx
@@ -403,6 +403,9 @@
     <t>fixed?</t>
   </si>
   <si>
+    <t>measured?</t>
+  </si>
+  <si>
     <t>D-glucose extracellular</t>
   </si>
   <si>
@@ -728,9 +731,6 @@
   </si>
   <si>
     <t>max (M)</t>
-  </si>
-  <si>
-    <t>measured</t>
   </si>
   <si>
     <t>Fluxes (umol/gCDW/h)</t>
@@ -1213,13 +1213,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1305,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,7 +2995,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>238</v>
@@ -4358,7 +4362,7 @@
       <c r="V18" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="W18" s="3" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4416,7 +4420,7 @@
       <c r="V20" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4448,7 +4452,7 @@
       <c r="V21" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4573,7 +4577,7 @@
       <c r="V25" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" s="3" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4599,7 +4603,7 @@
       <c r="V26" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="3" t="s">
         <v>329</v>
       </c>
     </row>
@@ -13051,18 +13055,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -13078,13 +13082,16 @@
       <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13095,13 +13102,16 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -13112,13 +13122,16 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -13129,13 +13142,16 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -13146,13 +13162,16 @@
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -13163,13 +13182,16 @@
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -13180,13 +13202,16 @@
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -13197,13 +13222,16 @@
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -13214,13 +13242,16 @@
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -13231,13 +13262,16 @@
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -13248,13 +13282,16 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -13265,13 +13302,16 @@
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -13282,13 +13322,16 @@
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -13299,13 +13342,16 @@
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -13316,13 +13362,16 @@
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -13333,13 +13382,16 @@
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -13350,13 +13402,16 @@
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -13367,13 +13422,16 @@
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -13384,13 +13442,16 @@
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -13401,13 +13462,16 @@
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -13418,13 +13482,16 @@
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -13435,13 +13502,16 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -13452,13 +13522,16 @@
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -13469,13 +13542,16 @@
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -13486,13 +13562,16 @@
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -13503,13 +13582,16 @@
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -13520,13 +13602,16 @@
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -13537,13 +13622,16 @@
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -13554,13 +13642,16 @@
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -13571,13 +13662,16 @@
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -13588,13 +13682,16 @@
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -13605,13 +13702,16 @@
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -13622,13 +13722,16 @@
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -13639,13 +13742,16 @@
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -13656,13 +13762,16 @@
       <c r="E35" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -13673,13 +13782,16 @@
       <c r="E36" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -13690,13 +13802,16 @@
       <c r="E37" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -13707,13 +13822,16 @@
       <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -13724,13 +13842,16 @@
       <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -13741,13 +13862,16 @@
       <c r="E40" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -13758,13 +13882,16 @@
       <c r="E41" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13775,13 +13902,16 @@
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -13792,13 +13922,16 @@
       <c r="E43" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -13809,13 +13942,16 @@
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -13826,13 +13962,16 @@
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -13843,13 +13982,16 @@
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -13860,13 +14002,16 @@
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -13877,13 +14022,16 @@
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -13894,13 +14042,16 @@
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -13911,13 +14062,16 @@
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -13928,13 +14082,16 @@
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -13944,6 +14101,9 @@
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13978,16 +14138,16 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13995,7 +14155,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -14009,7 +14169,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -14023,7 +14183,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -14037,7 +14197,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -14051,7 +14211,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14065,7 +14225,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14079,7 +14239,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -14093,7 +14253,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -14107,7 +14267,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -14121,7 +14281,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -14135,7 +14295,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -14149,7 +14309,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -14163,7 +14323,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -14177,7 +14337,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -14191,7 +14351,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -14205,7 +14365,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -14219,7 +14379,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -14233,7 +14393,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -14247,7 +14407,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -14261,7 +14421,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -14275,7 +14435,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -14289,7 +14449,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -14303,7 +14463,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -14317,7 +14477,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -14331,7 +14491,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -14345,7 +14505,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -14359,7 +14519,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -14373,7 +14533,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -14387,7 +14547,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -14401,7 +14561,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -14415,7 +14575,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -14429,7 +14589,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -14443,7 +14603,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -14457,7 +14617,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -14471,7 +14631,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -14485,7 +14645,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -14499,7 +14659,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -14513,7 +14673,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -14527,7 +14687,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -14541,7 +14701,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -14555,7 +14715,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -14569,7 +14729,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -14583,7 +14743,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -14597,7 +14757,7 @@
         <v>112</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -14611,7 +14771,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -14625,7 +14785,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -14639,7 +14799,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -14653,7 +14813,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -14667,7 +14827,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -14982,7 +15142,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15269,7 +15429,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15556,16 +15716,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15667,7 +15827,7 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15681,7 +15841,7 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16129,32 +16289,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="0" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -16164,11 +16321,8 @@
       <c r="C2" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -16178,11 +16332,8 @@
       <c r="C3" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -16191,9 +16342,6 @@
       </c>
       <c r="C4" s="0" t="n">
         <v>0.000651122965967596</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16206,11 +16354,8 @@
       <c r="C5" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -16220,11 +16365,8 @@
       <c r="C6" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -16234,11 +16376,8 @@
       <c r="C7" s="0" t="n">
         <v>7.21231415821084E-005</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -16248,11 +16387,8 @@
       <c r="C8" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -16262,11 +16398,8 @@
       <c r="C9" s="0" t="n">
         <v>0.000917879554028944</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -16276,11 +16409,8 @@
       <c r="C10" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -16290,11 +16420,8 @@
       <c r="C11" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -16304,11 +16431,8 @@
       <c r="C12" s="0" t="n">
         <v>3.32531235961152E-005</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -16318,11 +16442,8 @@
       <c r="C13" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -16332,11 +16453,8 @@
       <c r="C14" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -16346,11 +16464,8 @@
       <c r="C15" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -16360,11 +16475,8 @@
       <c r="C16" s="0" t="n">
         <v>3.0693977018932E-006</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -16374,11 +16486,8 @@
       <c r="C17" s="0" t="n">
         <v>0.000235952867744932</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -16388,11 +16497,8 @@
       <c r="C18" s="0" t="n">
         <v>2.66558719808663E-006</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -16402,11 +16508,8 @@
       <c r="C19" s="0" t="n">
         <v>6.3679714220752E-005</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -16416,11 +16519,8 @@
       <c r="C20" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -16430,11 +16530,8 @@
       <c r="C21" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -16444,11 +16541,8 @@
       <c r="C22" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -16458,11 +16552,8 @@
       <c r="C23" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -16472,11 +16563,8 @@
       <c r="C24" s="0" t="n">
         <v>6.80528399692013E-005</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -16486,11 +16574,8 @@
       <c r="C25" s="0" t="n">
         <v>9.2446166970518E-006</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -16500,11 +16585,8 @@
       <c r="C26" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -16514,11 +16596,8 @@
       <c r="C27" s="0" t="n">
         <v>1E-008</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -16528,11 +16607,8 @@
       <c r="C28" s="0" t="n">
         <v>0.000154887654947245</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -16542,11 +16618,8 @@
       <c r="C29" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -16556,11 +16629,8 @@
       <c r="C30" s="0" t="n">
         <v>0.000195418152608378</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -16570,11 +16640,8 @@
       <c r="C31" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -16584,11 +16651,8 @@
       <c r="C32" s="0" t="n">
         <v>0.000241491074422363</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -16598,11 +16662,8 @@
       <c r="C33" s="0" t="n">
         <v>1.40346957674945E-005</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -16612,11 +16673,8 @@
       <c r="C34" s="0" t="n">
         <v>0.000118307291666667</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -16626,11 +16684,8 @@
       <c r="C35" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -16640,11 +16695,8 @@
       <c r="C36" s="0" t="n">
         <v>1E-008</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -16654,11 +16706,8 @@
       <c r="C37" s="0" t="n">
         <v>1E-008</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -16668,11 +16717,8 @@
       <c r="C38" s="0" t="n">
         <v>0.000359219963826603</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -16682,11 +16728,8 @@
       <c r="C39" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -16696,11 +16739,8 @@
       <c r="C40" s="0" t="n">
         <v>0.000876265357597299</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -16710,11 +16750,8 @@
       <c r="C41" s="0" t="n">
         <v>0.000485172372390484</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -16724,11 +16761,8 @@
       <c r="C42" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -16738,11 +16772,8 @@
       <c r="C43" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -16752,11 +16783,8 @@
       <c r="C44" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -16766,11 +16794,8 @@
       <c r="C45" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -16780,11 +16805,8 @@
       <c r="C46" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -16794,11 +16816,8 @@
       <c r="C47" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -16808,11 +16827,8 @@
       <c r="C48" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -16822,11 +16838,8 @@
       <c r="C49" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -16836,11 +16849,8 @@
       <c r="C50" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -16850,11 +16860,8 @@
       <c r="C51" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -16864,11 +16871,7 @@
       <c r="C52" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
